--- a/sales_receipt/utils/output.xlsx
+++ b/sales_receipt/utils/output.xlsx
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9feec02e-c495-40be-8848-412b22a41aa8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfab9156-16ba-46f6-9b67-f05ce41552b7}">
   <dimension ref="A1:ZQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -11262,7 +11262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dc372eae-e4c9-4a2e-b2cc-97197fe2a91f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c1eba32e-d212-4698-87b3-c9efae249a9e}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/sales_receipt/utils/output.xlsx
+++ b/sales_receipt/utils/output.xlsx
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfab9156-16ba-46f6-9b67-f05ce41552b7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2e62965-6bad-4e24-91b6-2fc5b097643a}">
   <dimension ref="A1:ZQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -11262,7 +11262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c1eba32e-d212-4698-87b3-c9efae249a9e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67046325-fb2e-445d-9fe7-fe07b8461218}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/sales_receipt/utils/output.xlsx
+++ b/sales_receipt/utils/output.xlsx
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2e62965-6bad-4e24-91b6-2fc5b097643a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2dd3d621-9422-42a4-aa50-330f55773a1c}">
   <dimension ref="A1:ZQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -11262,7 +11262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67046325-fb2e-445d-9fe7-fe07b8461218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f55078f7-489c-4340-bf11-a7fed41ab6be}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
